--- a/12.11.21_MTS_MISIS/names.xlsx
+++ b/12.11.21_MTS_MISIS/names.xlsx
@@ -30,9 +30,6 @@
     <t>L173</t>
   </si>
   <si>
-    <t>L173*HCl</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -46,6 +43,9 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>L173_HCl</t>
   </si>
 </sst>
 </file>
@@ -387,7 +387,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -397,13 +397,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
         <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -425,13 +425,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -439,13 +439,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -453,13 +453,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -467,13 +467,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -481,13 +481,13 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -495,24 +495,24 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
         <v>1</v>
@@ -520,13 +520,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
         <v>1</v>
@@ -534,13 +534,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
         <v>1</v>
